--- a/biology/Histoire de la zoologie et de la botanique/Karl_Shuker/Karl_Shuker.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Shuker/Karl_Shuker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karl P.N. Shuker (né en 1959) est un zoologiste britannique. Il travaille à plein temps en qualité d'auteur et de consultant indépendant, spécialisé en cryptozoologie, cela lui valant une reconnaissance internationale. Il voyage régulièrement dans le monde entier et intervient souvent à la radio ou à la télévision. Michael Newton a déclaré que "Shuker est aujourd'hui reconnu partout comme un auteur et chercheur compétent sur tous les aspects de la vie animale et des phénomènes inexpliqués, héritier manifeste de Heuvelmans lui-même." [1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karl P.N. Shuker (né en 1959) est un zoologiste britannique. Il travaille à plein temps en qualité d'auteur et de consultant indépendant, spécialisé en cryptozoologie, cela lui valant une reconnaissance internationale. Il voyage régulièrement dans le monde entier et intervient souvent à la radio ou à la télévision. Michael Newton a déclaré que "Shuker est aujourd'hui reconnu partout comme un auteur et chercheur compétent sur tous les aspects de la vie animale et des phénomènes inexpliqués, héritier manifeste de Heuvelmans lui-même." 
 Il est diplômé de zoologie à l'université de Leeds et de zoologie et physiologie comparative à l'université de Birmingham. Il est membre de nombreuses sociétés scientifiques et d'associations d'auteurs (Zoological Society of London, Royal Entomological Society etc.) Shuker a publié plusieurs centaines d'articles et treize ouvrages. Par ses écrits et ses recherches, Shuker a été le premier cryptozoologiste à porter l'attention du grand public sur un nombre considérable de cryptides peu connus. À côté de ses publications, il est le zoologiste consultant du Livre Guinness des records. Une espèce de Loricifera, Pliciloricus Shukeri, porte son nom.
 </t>
         </is>
